--- a/我和蕾蕾的旅游日记.xlsx
+++ b/我和蕾蕾的旅游日记.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="14050" windowHeight="8080"/>
   </bookViews>
   <sheets>
-    <sheet name="账号信息" sheetId="1" r:id="rId3"/>
-    <sheet name="旅游日记" sheetId="2" r:id="rId4"/>
+    <sheet name="账号信息" sheetId="1" r:id="rId1"/>
+    <sheet name="旅游日记" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>专属账号</t>
   </si>
@@ -25,175 +36,565 @@
     <t>备忘录</t>
   </si>
   <si>
-    <t>日记名称、旅游图片（图片或链接）、攻略链接、关联城市、旅游时间、天数、计划开销、实际开销、人数</t>
-  </si>
-  <si>
-    <t>日记名称</t>
-  </si>
-  <si>
-    <t>旅游图片</t>
-  </si>
-  <si>
-    <t>攻略链接</t>
-  </si>
-  <si>
-    <t>关联城市</t>
-  </si>
-  <si>
-    <t>旅游时间</t>
-  </si>
-  <si>
-    <t>天数</t>
-  </si>
-  <si>
-    <t>计划开销</t>
-  </si>
-  <si>
-    <t>实际开销</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
     <t>蕾蕾</t>
   </si>
   <si>
-    <t>吃美食</t>
-  </si>
-  <si>
-    <t>蝎子莱莱</t>
-  </si>
-  <si>
-    <t>哈哈哈</t>
-  </si>
-  <si>
-    <t>青岛旅游4天</t>
-  </si>
-  <si>
-    <t>桂林+柳州</t>
-  </si>
-  <si>
-    <t>青岛</t>
-  </si>
-  <si>
-    <t>桂林、柳州</t>
-  </si>
-  <si>
-    <t>2026-1月</t>
-  </si>
-  <si>
+    <r>
+      <t>1、行前：共识预算 / 行程，分工备证件 / 行李，双备份重要信息</t>
+    </r>
     <r>
       <rPr>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF175CEB"/>
         <sz val="10"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
-      <t>桂林柳州and青岛旅游</t>
+      <t xml:space="preserve">
+</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF175CEB"/>
         <sz val="10"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
-      <t>桂林柳州and青岛旅游</t>
+      <t>2、途中：行程不排满，互相迁就，专人导航 / 管账，不单独行动，温和沟通不抱怨</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF175CEB"/>
         <sz val="10"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
-      <t>桂林柳州and青岛旅游</t>
+      <t xml:space="preserve">
+</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
-      <t>桂林柳州and青岛旅游</t>
+      <t>3、安全：共享定位，贵重物品分放，注意饮食 / 作息，告知家人行程</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <color rgb="FF175CEB"/>
-        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
-      <t>https://docs.qq.com/sheet/DQmxDZUhkeFBSak9m</t>
+      <t xml:space="preserve">
+</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4、返程：核对行李 / 账单，预留返程时间，回家整理纪念物</t>
+    </r>
+  </si>
+  <si>
+    <t>蝎子莱莱</t>
+  </si>
+  <si>
+    <t>风尚云天</t>
+  </si>
+  <si>
+    <t>日记名称</t>
+  </si>
+  <si>
+    <t>旅游图片</t>
+  </si>
+  <si>
+    <t>攻略链接</t>
+  </si>
+  <si>
+    <t>关联城市</t>
+  </si>
+  <si>
+    <t>旅游时间</t>
+  </si>
+  <si>
+    <t>天数</t>
+  </si>
+  <si>
+    <t>计划开销</t>
+  </si>
+  <si>
+    <t>实际开销</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF175CEB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://docs.qq.com/doc/DQnBzcVpwdUxNZ2Fq</t>
+    </r>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
-      <t>https://docs.qq.com/sheet/DQmxDZUhkeFBSak9m</t>
+      <t>https://docs.qq.com/sheet/DQkJiVHhjVkh6cXd4?tab=BB08J2</t>
     </r>
+  </si>
+  <si>
+    <t>桂林+柳州</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://docs.qq.com/sheet/DQmxDZUhkeFBSak9m?tab=hop425</t>
+    </r>
+  </si>
+  <si>
+    <t>桂林、柳州</t>
+  </si>
+  <si>
+    <t>青岛旅游</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://docs.qq.com/sheet/DQm15bkVYcGxFbWVW?tab=kq0697</t>
+    </r>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>大理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://docs.qq.com/doc/DQmFzR3JYcUt5cEFk</t>
+    </r>
+  </si>
+  <si>
+    <t>？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="300" formatCode="[$-409]mmm-yy;@"/>
-    <numFmt numFmtId="301" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="5">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
       <name val="Microsoft YaHei"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="ui-sans-serif"/>
-      <color rgb="FF262626"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Microsoft YaHei"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,46 +602,541 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="301" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -470,107 +1366,118 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="账号信息">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="账号信息"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="1" rightToLeft="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="旅游日记">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="旅游日记"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="2" width="10.6523" customWidth="1"/>
-    <col min="3" max="3" width="27.6523" customWidth="1"/>
-    <col min="4" max="4" width="10.6523" customWidth="1"/>
-    <col min="5" max="5" width="10.6523" style="7" customWidth="1"/>
-    <col min="6" max="9" width="10.6523" customWidth="1"/>
+    <col min="1" max="2" width="10.65" customWidth="1"/>
+    <col min="3" max="3" width="27.65" customWidth="1"/>
+    <col min="4" max="4" width="10.65" customWidth="1"/>
+    <col min="5" max="5" width="10.65" style="1" customWidth="1"/>
+    <col min="6" max="9" width="10.65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
+    <row r="1" customHeight="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>46023</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46054</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -578,43 +1485,111 @@
       <c r="G2">
         <v>3000</v>
       </c>
-      <c r="H2">
-        <v>4000</v>
-      </c>
       <c r="I2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" customHeight="1" spans="1:9">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7">
-        <v>46054</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45932</v>
       </c>
       <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>5000</v>
-      </c>
-      <c r="H3">
-        <v>5001</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46054</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4">
+        <v>5001</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>46023</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+      <c r="H5">
+        <v>4000</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45856</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId0"/>
-    <hyperlink ref="C3" r:id="rId0"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://docs.qq.com/doc/DQnBzcVpwdUxNZ2Fq"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://docs.qq.com/sheet/DQkJiVHhjVkh6cXd4?tab=BB08J2"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://docs.qq.com/sheet/DQmxDZUhkeFBSak9m?tab=hop425"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://docs.qq.com/sheet/DQm15bkVYcGxFbWVW?tab=kq0697"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://docs.qq.com/doc/DQmFzR3JYcUt5cEFk"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>